--- a/Transoped Data/Fallecimientos_genero.xlsx
+++ b/Transoped Data/Fallecimientos_genero.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaFiE\Desktop\Clean_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaFiE\Desktop\Prescriptive analysis\Transoped Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88862DFD-8BFB-4668-9BF2-EB9C4469F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9383D7F-B336-4394-A6AB-A939786B43BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$19</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>genero</t>
   </si>
@@ -53,6 +64,9 @@
   </si>
   <si>
     <t>Sin especificar</t>
+  </si>
+  <si>
+    <t>Fallecimientos_totales</t>
   </si>
 </sst>
 </file>
@@ -387,18 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +435,11 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -443,8 +461,12 @@
       <c r="G2">
         <v>1350</v>
       </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>9171</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -466,8 +488,12 @@
       <c r="G3">
         <v>180</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">SUM(B3:G3)</f>
+        <v>1165</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -488,6 +514,10 @@
       </c>
       <c r="G4">
         <v>13</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
